--- a/policydata.xlsx
+++ b/policydata.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookair/Downloads/uni/policy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAC979A-C714-EA4E-9E91-2A08BA08B958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1648F77E-1D35-104A-A742-3CE9A6212B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3C8FB26B-CF6F-8945-B070-C02D005FD4E6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{3C8FB26B-CF6F-8945-B070-C02D005FD4E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -142,7 +142,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -194,7 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC7807E-30F1-2B4F-B82A-C45E4819EE00}">
   <dimension ref="A1:L442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L442"/>
+    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="A401" sqref="A401:A421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15829,7 +15829,7 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B403">
         <v>19</v>
@@ -15867,7 +15867,7 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="B404">
         <v>19</v>
@@ -15905,7 +15905,7 @@
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="B405">
         <v>19</v>
@@ -15943,7 +15943,7 @@
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="B406">
         <v>19</v>
@@ -15981,7 +15981,7 @@
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="B407">
         <v>19</v>
@@ -16019,7 +16019,7 @@
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="B408">
         <v>19</v>
@@ -16057,7 +16057,7 @@
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="B409">
         <v>19</v>
@@ -16095,7 +16095,7 @@
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="B410">
         <v>19</v>
@@ -16133,7 +16133,7 @@
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="B411">
         <v>19</v>
@@ -16171,7 +16171,7 @@
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="B412">
         <v>19</v>
@@ -16209,7 +16209,7 @@
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="B413">
         <v>19</v>
@@ -16247,7 +16247,7 @@
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="B414">
         <v>19</v>
@@ -16285,7 +16285,7 @@
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415">
-        <v>2001</v>
+        <v>2014</v>
       </c>
       <c r="B415">
         <v>19</v>
@@ -16323,7 +16323,7 @@
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416">
-        <v>2001</v>
+        <v>2015</v>
       </c>
       <c r="B416">
         <v>19</v>
@@ -16361,7 +16361,7 @@
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417">
-        <v>2001</v>
+        <v>2016</v>
       </c>
       <c r="B417">
         <v>19</v>
@@ -16399,7 +16399,7 @@
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="B418">
         <v>19</v>
@@ -16437,7 +16437,7 @@
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="B419">
         <v>19</v>
@@ -16475,7 +16475,7 @@
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420">
-        <v>2001</v>
+        <v>2019</v>
       </c>
       <c r="B420">
         <v>19</v>
@@ -16513,7 +16513,7 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421">
-        <v>2001</v>
+        <v>2020</v>
       </c>
       <c r="B421">
         <v>19</v>
